--- a/도서대여 프로젝트/샘플-도서정보(2021-05-03).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-05-03).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="회원정보" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2455,11 +2455,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3513,11 +3513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
@@ -3530,7 +3530,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>203</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>207</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0007</v>
+        <v>A0009</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>671</v>
@@ -3583,7 +3583,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>210</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0028</v>
+        <v>A0020</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>672</v>
@@ -3610,7 +3610,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0011</v>
+        <v>A0024</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>673</v>
@@ -3637,7 +3637,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>216</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0011</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>673</v>
@@ -3664,7 +3664,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="31.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>218</v>
       </c>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0024</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>673</v>
@@ -3691,7 +3691,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="31.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>221</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0005</v>
+        <v>A0003</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>673</v>
@@ -3718,7 +3718,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="31.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>224</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0009</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>674</v>
@@ -3745,7 +3745,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>226</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0003</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>675</v>
@@ -3772,7 +3772,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>229</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0015</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>676</v>
@@ -3799,7 +3799,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="31.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>231</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0013</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>677</v>
@@ -3826,7 +3826,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="31.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>234</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0003</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>678</v>
@@ -3853,7 +3853,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>237</v>
       </c>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0013</v>
+        <v>A0015</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>679</v>
@@ -3880,7 +3880,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>240</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0013</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>680</v>
@@ -3907,7 +3907,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="31.5" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>243</v>
       </c>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0007</v>
+        <v>A0026</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>681</v>
@@ -3934,7 +3934,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>246</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0028</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>682</v>
@@ -3961,7 +3961,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>249</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0002</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>683</v>
@@ -3988,7 +3988,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>251</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0012</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>684</v>
@@ -4015,7 +4015,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0027</v>
+        <v>A0004</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>685</v>
@@ -4042,7 +4042,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="31.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>257</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0011</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>686</v>
@@ -4069,7 +4069,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="31.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>260</v>
       </c>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0007</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>687</v>
@@ -4096,7 +4096,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>263</v>
       </c>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0027</v>
+        <v>A0016</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>688</v>
@@ -4123,7 +4123,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="31.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>266</v>
       </c>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0025</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>689</v>
@@ -4150,7 +4150,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="31.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>269</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0018</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>690</v>
@@ -4177,7 +4177,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="31.5" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>272</v>
       </c>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0005</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>691</v>
@@ -4204,7 +4204,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="31.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>275</v>
       </c>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0031</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>692</v>
@@ -4231,7 +4231,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="31.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>277</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0011</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>693</v>
@@ -4258,7 +4258,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="31.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>280</v>
       </c>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0021</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>694</v>
@@ -4285,7 +4285,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="31.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>283</v>
       </c>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0019</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>695</v>
@@ -4312,7 +4312,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="31.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>286</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0031</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>696</v>
@@ -4339,7 +4339,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="31.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>289</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0018</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>697</v>
@@ -4377,11 +4377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -4390,7 +4390,7 @@
     <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>102</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="26.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>103</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="26.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>104</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="26.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>105</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="26.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>106</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="26.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>107</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>108</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="26.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>109</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="26.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>110</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="26.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>111</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="26.25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>112</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="26.25" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>113</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="26.25" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>114</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="26.25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>115</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="26.25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>116</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>117</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="26.25" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>118</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="26.25" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>119</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="26.25" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>120</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="26.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>121</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="26.25" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>122</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="26.25" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>123</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="26.25" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>124</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="26.25" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>125</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="26.25" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>126</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="26.25" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>127</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="26.25" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>128</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="26.25" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>129</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="26.25" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>130</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="26.25" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>131</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="26.25" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>132</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="26.25" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>133</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="26.25" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>134</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="26.25" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>135</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="26.25" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>136</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="26.25" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>137</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="26.25" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>138</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="26.25" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>139</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="26.25" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>140</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="26.25" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>141</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="26.25" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>142</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="26.25" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>143</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="26.25" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>144</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="26.25" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>145</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="26.25" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>146</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="26.25" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>147</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="26.25" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>148</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="26.25" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>149</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="26.25" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>150</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="26.25" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>151</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="26.25" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>152</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="26.25" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>153</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="26.25" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>154</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="26.25" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>155</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="26.25" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>156</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="26.25" customHeight="1">
       <c r="A56" s="11" t="s">
         <v>157</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="26.25" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>158</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="26.25" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>159</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="26.25" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>160</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="26.25" customHeight="1">
       <c r="A60" s="11" t="s">
         <v>161</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="26.25" customHeight="1">
       <c r="A61" s="11" t="s">
         <v>162</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="26.25" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>163</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="26.25" customHeight="1">
       <c r="A63" s="11" t="s">
         <v>164</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="26.25" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>165</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="26.25" customHeight="1">
       <c r="A65" s="11" t="s">
         <v>166</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="26.25" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>167</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="26.25" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>168</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="26.25" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>169</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="26.25" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>170</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="26.25" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>171</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="26.25" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>172</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="26.25" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>173</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="26.25" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>174</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="26.25" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>175</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="26.25" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>176</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="26.25" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>177</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="26.25" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>178</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="26.25" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>179</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="26.25" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>180</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="26.25" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>181</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="26.25" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>182</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="26.25" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>183</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="26.25" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>184</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="26.25" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>185</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="26.25" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>186</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="26.25" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>187</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="26.25" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>188</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="26.25" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>189</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="26.25" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>190</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="26.25" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>191</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="26.25" customHeight="1">
       <c r="A91" s="11" t="s">
         <v>192</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="26.25" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>193</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="26.25" customHeight="1">
       <c r="A93" s="11" t="s">
         <v>194</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="26.25" customHeight="1">
       <c r="A94" s="11" t="s">
         <v>195</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="26.25" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>196</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="26.25" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>197</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="26.25" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>198</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="26.25" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>199</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="26.25" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>200</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="26.25" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>201</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="26.25" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>202</v>
       </c>
@@ -6125,7 +6125,7 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
@@ -6133,7 +6133,7 @@
     <col min="4" max="4" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>305</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="22.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>306</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="22.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>307</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>308</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="22.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>309</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="22.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>310</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="22.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>311</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="22.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>312</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="22.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>313</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="22.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>314</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="22.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>315</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="22.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>316</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="22.5" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>317</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="22.5" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>318</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="22.5" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>319</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="22.5" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>320</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="22.5" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>321</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="22.5" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>322</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="22.5" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>323</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="22.5" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>324</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="22.5" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>325</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="22.5" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>326</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="22.5" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>327</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="22.5" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>328</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="22.5" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>329</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="22.5" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>330</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="22.5" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>331</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="22.5" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>332</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="22.5" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>333</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="22.5" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>334</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="22.5" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>335</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="22.5" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>336</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="22.5" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>337</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="22.5" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>338</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="22.5" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>339</v>
       </c>
@@ -6634,11 +6634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -6647,7 +6647,7 @@
     <col min="5" max="5" width="63.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
         <v>709</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>714</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="13" t="s">
         <v>715</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>716</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>717</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="13" t="s">
         <v>718</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
         <v>719</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>720</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>721</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>722</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="13" t="s">
         <v>723</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="13" t="s">
         <v>724</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="13" t="s">
         <v>725</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
         <v>726</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="13" t="s">
         <v>727</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="13" t="s">
         <v>728</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>729</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>730</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="13" t="s">
         <v>731</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>732</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="13" t="s">
         <v>733</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
         <v>734</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
         <v>735</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
         <v>736</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="13" t="s">
         <v>737</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
         <v>738</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="13" t="s">
         <v>739</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="13" t="s">
         <v>740</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="13" t="s">
         <v>741</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="13" t="s">
         <v>742</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="13" t="s">
         <v>743</v>
       </c>
@@ -7174,69 +7174,69 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="B32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5">
       <c r="B33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5">
       <c r="B34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5">
       <c r="B35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5">
       <c r="B36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5">
       <c r="B37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5">
       <c r="B38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5">
       <c r="B39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5">
       <c r="B40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5">
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5">
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5">
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5">
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5">
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5">
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5">
       <c r="B48" s="16"/>
     </row>
   </sheetData>
@@ -7253,7 +7253,7 @@
       <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
@@ -7265,7 +7265,7 @@
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>706</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>641</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>642</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>643</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>644</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>645</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>646</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>647</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>648</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>649</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>650</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>652</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>651</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>653</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>654</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>655</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>657</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>656</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>658</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>659</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>660</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>661</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>663</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>664</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>665</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>666</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>667</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>668</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>669</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>670</v>
       </c>
